--- a/biology/Médecine/Maladies_du_spectre_phénotypique_des_ostéodysplasies_fronto-oto-palato-digitales/Maladies_du_spectre_phénotypique_des_ostéodysplasies_fronto-oto-palato-digitales.xlsx
+++ b/biology/Médecine/Maladies_du_spectre_phénotypique_des_ostéodysplasies_fronto-oto-palato-digitales/Maladies_du_spectre_phénotypique_des_ostéodysplasies_fronto-oto-palato-digitales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladies_du_spectre_ph%C3%A9notypique_des_ost%C3%A9odysplasies_fronto-oto-palato-digitales</t>
+          <t>Maladies_du_spectre_phénotypique_des_ostéodysplasies_fronto-oto-palato-digitales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  maladies du spectre phénotypique des ostéodysplasies fronto-oto-palato-digitales comprennent  les syndromes ostéodysplasies fronto-oto-palato-digitales, la dysplasie frontométaphysaire et le syndrome de Melnick-Needles. Ces maladies sont en rapport avec une mutation du gène FNLA.
 Chez les garçons, la sévérité des maladies de ce spectre va des manifestations légères du syndrome oto-palato-digital type I jusqu'au manifestations plus sévères du type II et au décès habituel en période périnatale chez les garçons atteints du syndrome de Melnick-Needles. Les filles ont des manifestations variables. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladies_du_spectre_ph%C3%A9notypique_des_ost%C3%A9odysplasies_fronto-oto-palato-digitales</t>
+          <t>Maladies_du_spectre_phénotypique_des_ostéodysplasies_fronto-oto-palato-digitales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladies_du_spectre_ph%C3%A9notypique_des_ost%C3%A9odysplasies_fronto-oto-palato-digitales</t>
+          <t>Maladies_du_spectre_phénotypique_des_ostéodysplasies_fronto-oto-palato-digitales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">* (en) Stephen Robertson, Otopalatodigital Spectrum Disorders In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">* (en) Stephen Robertson, Otopalatodigital Spectrum Disorders In GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine   Portail du handicap                    </t>
         </is>
       </c>
